--- a/PythonSkillDev/excel.xlsx
+++ b/PythonSkillDev/excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPES\Semester 1 2022\Online Python Training\PythonDevWork\PythonSkillDev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CB5367-AEE4-44CF-924C-39D55D3059CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB41D0D-253F-4F81-AEBE-B78E6E8FE141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +59,9 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Chandan</t>
   </si>
 </sst>
 </file>
@@ -377,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,4 +467,96 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAFCCD2-9712-4E2E-8AC8-D0ECA592C840}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>